--- a/配置表/StoreItem.xlsx
+++ b/配置表/StoreItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,12 +392,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
-  <si>
-    <t>主键id int类型</t>
-  </si>
-  <si>
-    <t>物品描述</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>StoreItemName</t>
+  </si>
+  <si>
+    <t>StoreItemSprite</t>
   </si>
   <si>
     <t>物品图片</t>
@@ -412,6 +415,9 @@
     <t>typeName</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>String</t>
   </si>
   <si>
@@ -424,6 +430,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
     <t>交易名字</t>
   </si>
   <si>
@@ -440,6 +449,9 @@
   </si>
   <si>
     <t>购买数量</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>Handful of Diamonds</t>
@@ -1376,7 +1388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1410,12 +1422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1962,29 +1968,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="28.0181818181818" customWidth="1"/>
-    <col min="3" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="30.5363636363636" customWidth="1"/>
-    <col min="7" max="7" width="10"/>
+    <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="7" width="30.5363636363636" customWidth="1"/>
+    <col min="8" max="8" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -1996,65 +2003,74 @@
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="13"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:13">
+      <c r="A4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="14">
@@ -2063,706 +2079,709 @@
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17">
         <v>30</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="17">
         <v>2.99</v>
       </c>
-      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="I5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17">
         <v>90</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="17">
         <v>6.99</v>
       </c>
-      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="I6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17">
         <v>200</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="17">
         <v>12.99</v>
       </c>
-      <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="E8" s="17">
         <v>450</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="17">
         <v>24.99</v>
       </c>
-      <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="18" t="s">
+      <c r="I8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:13">
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="G9" s="17">
+        <v>69.99</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:13">
+      <c r="B10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="17">
+        <v>129.99</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:13">
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17">
+        <v>300</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="17">
+        <v>2.99</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:13">
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17">
+        <v>900</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6.99</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:13">
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="17">
+        <v>12.99</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:13">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="17">
+        <v>24.99</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:13">
+      <c r="B15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="17">
+        <v>69.99</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:13">
+      <c r="B16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="17">
+        <v>25000</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="17">
+        <v>129.99</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:13">
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="17">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2.99</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:13">
+      <c r="B18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="17">
+        <v>90</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="17">
+        <v>6.99</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:13">
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="17">
+        <v>200</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="17">
+        <v>12.99</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:13">
+      <c r="B20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="17">
+        <v>450</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="17">
+        <v>24.99</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:13">
+      <c r="B21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="17">
         <v>1200</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="F21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="17">
         <v>69.99</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="H21" s="16"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:13">
+      <c r="B22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="17">
         <v>2500</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="F22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="17">
         <v>129.99</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17">
-        <v>300</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="17">
-        <v>2.99</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="17">
-        <v>900</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17">
-        <v>6.99</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2000</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="17">
-        <v>12.99</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:12">
-      <c r="A14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="17">
-        <v>4500</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17">
-        <v>24.99</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:12">
-      <c r="A15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="17">
-        <v>12000</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="17">
-        <v>69.99</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:12">
-      <c r="A16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="17">
-        <v>25000</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="17">
-        <v>129.99</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:12">
-      <c r="A17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="17">
-        <v>30</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2.99</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:12">
-      <c r="A18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="17">
-        <v>90</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="17">
-        <v>6.99</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:12">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="17">
-        <v>200</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="17">
-        <v>12.99</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:12">
-      <c r="A20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="H22" s="16"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:13">
+      <c r="B23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17">
+        <v>110</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:13">
+      <c r="B24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="17">
+        <v>220</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:13">
+      <c r="B25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="17">
         <v>450</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="17">
-        <v>24.99</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:12">
-      <c r="A21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1200</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="17">
-        <v>69.99</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:12">
-      <c r="A22" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="17">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="17">
-        <v>129.99</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:12">
-      <c r="A23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="17">
-        <v>110</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:12">
-      <c r="A24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="17">
-        <v>220</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:12">
-      <c r="A25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="17">
-        <v>450</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:12">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:13">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:13">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:13">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="16"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="16"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:13">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="16"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:12">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:13">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:12">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:13">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="16"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:12">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:13">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="16"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="16"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:13">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="16"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:12">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:13">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="16"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:12">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:13">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="16"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:12">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:13">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="16"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:12">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="16"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:13">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="16"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:12">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="16"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:13">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="16"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:12">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="16"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:13">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="16"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:12">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="16"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:13">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="16"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:12">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:13">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="16"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:12">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:13">
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="16"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:12">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="16"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:13">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="16"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:12">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="16"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+    </row>
+    <row r="44" ht="16.5" spans="2:13">
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="16"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:12">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="16"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" ht="16.5" spans="2:13">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="16"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:12">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="16"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+    </row>
+    <row r="46" ht="16.5" spans="2:13">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="16"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:12">
-      <c r="A47" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="16"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" ht="16.5" spans="2:13">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="17"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="G47" s="17"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7 G10">
+  <conditionalFormatting sqref="H7 H10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2784,206 +2803,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3051,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3096,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3143,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3190,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3237,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3284,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3331,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/StoreItem.xlsx
+++ b/配置表/StoreItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20827" windowHeight="11175"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -38,9 +38,6 @@
     <t>StoreItemName</t>
   </si>
   <si>
-    <t>StoreItemSprite</t>
-  </si>
-  <si>
     <t>GiveItemId</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>交易名字</t>
-  </si>
-  <si>
-    <t>交易物品图片</t>
   </si>
   <si>
     <t>给与资源类型</t>
@@ -973,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,9 +1008,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,24 +1535,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.8141592920354" customWidth="1"/>
-    <col min="2" max="2" width="19.8141592920354" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.1858407079646" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.0176991150442" style="4" customWidth="1"/>
-    <col min="5" max="6" width="23.5044247787611" style="4" customWidth="1"/>
-    <col min="7" max="10" width="30.5398230088496" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.6106194690265" customWidth="1"/>
+    <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="19.8181818181818" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.1818181818182" style="4" customWidth="1"/>
+    <col min="4" max="5" width="23.5" style="4" customWidth="1"/>
+    <col min="6" max="9" width="30.5363636363636" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,13 +1561,13 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1589,47 +1579,41 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1640,912 +1624,865 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:13">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" spans="2:11">
+    </row>
+    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:10">
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>30</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>299</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="14">
-        <v>30</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>299</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="15" spans="2:11">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:10">
       <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>90</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>699</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="14">
-        <v>90</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>699</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="15" spans="2:11">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:10">
       <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>200</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1299</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14">
-        <v>200</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>1299</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="15" spans="2:11">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:10">
       <c r="B8" s="12">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>450</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2499</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>450</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2499</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" ht="15" spans="2:13">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:12">
       <c r="B9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6999</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1200</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>6999</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" ht="15" spans="2:13">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:12">
       <c r="B10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>12999</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>12999</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" ht="15" spans="2:13">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:12">
       <c r="B11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>300</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>299</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14">
-        <v>300</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>299</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" ht="15" spans="2:13">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:12">
       <c r="B12" s="12">
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>900</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>699</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>900</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>699</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" ht="15" spans="2:13">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:12">
       <c r="B13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1299</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>2000</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1299</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" ht="15" spans="2:13">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:12">
       <c r="B14" s="12">
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>2499</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>4500</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>2499</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" ht="15" spans="2:13">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:12">
       <c r="B15" s="12">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6999</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>12000</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>6999</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" ht="15" spans="2:13">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:12">
       <c r="B16" s="12">
         <v>12</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>25000</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>12999</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>25000</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>12999</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" ht="15" spans="2:13">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:12">
       <c r="B17" s="12">
         <v>13</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="15">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14">
+        <v>30</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>299</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>30</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>299</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" ht="15" spans="2:13">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:12">
       <c r="B18" s="12">
         <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="15">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14">
+        <v>90</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>699</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
-        <v>3</v>
-      </c>
-      <c r="F18" s="14">
-        <v>90</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>699</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" ht="15" spans="2:13">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:12">
       <c r="B19" s="12">
         <v>15</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3</v>
+      </c>
+      <c r="E19" s="14">
+        <v>200</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1299</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15">
-        <v>3</v>
-      </c>
-      <c r="F19" s="14">
-        <v>200</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1299</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" ht="15" spans="2:13">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:12">
       <c r="B20" s="12">
         <v>16</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>450</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2499</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
-        <v>3</v>
-      </c>
-      <c r="F20" s="14">
-        <v>450</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>2499</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" ht="15" spans="2:13">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:12">
       <c r="B21" s="12">
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>6999</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1200</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>6999</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" ht="15" spans="2:13">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:12">
       <c r="B22" s="12">
         <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>12999</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <v>3</v>
-      </c>
-      <c r="F22" s="14">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>12999</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" ht="15" spans="2:13">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:12">
       <c r="B23" s="12">
         <v>19</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="15">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <v>110</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>5900</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15">
-        <v>6</v>
-      </c>
-      <c r="F23" s="14">
-        <v>110</v>
-      </c>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-      <c r="H23" s="14">
-        <v>5900</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" ht="15" spans="2:13">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:12">
       <c r="B24" s="12">
         <v>20</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="15">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14">
+        <v>220</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+      <c r="G24" s="14">
+        <v>9900</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15">
-        <v>6</v>
-      </c>
-      <c r="F24" s="14">
-        <v>220</v>
-      </c>
-      <c r="G24" s="13">
-        <v>2</v>
-      </c>
-      <c r="H24" s="14">
-        <v>9900</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" ht="15" spans="2:13">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:12">
       <c r="B25" s="12">
         <v>21</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="15">
+        <v>6</v>
+      </c>
+      <c r="E25" s="14">
+        <v>450</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>19900</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15">
-        <v>6</v>
-      </c>
-      <c r="F25" s="14">
-        <v>450</v>
-      </c>
-      <c r="G25" s="13">
-        <v>2</v>
-      </c>
-      <c r="H25" s="14">
-        <v>19900</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" ht="15" spans="3:13">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" ht="16.5" spans="3:12">
       <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" ht="15" spans="3:13">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" ht="16.5" spans="3:12">
       <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" ht="15" spans="3:13">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" ht="16.5" spans="3:12">
       <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" ht="15" spans="3:13">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" ht="16.5" spans="3:12">
       <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" ht="15" spans="3:13">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" ht="16.5" spans="3:12">
       <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" ht="15" spans="3:13">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" ht="16.5" spans="3:12">
       <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" ht="15" spans="3:13">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" ht="16.5" spans="3:12">
       <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" ht="15" spans="3:13">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" ht="16.5" spans="3:12">
       <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" ht="15" spans="3:13">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" ht="16.5" spans="3:12">
       <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" ht="15" spans="3:13">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" ht="16.5" spans="3:12">
       <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" ht="15" spans="3:13">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" ht="16.5" spans="3:12">
       <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" ht="15" spans="3:13">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" ht="16.5" spans="3:12">
       <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" ht="15" spans="3:13">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" ht="16.5" spans="3:12">
       <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" ht="15" spans="3:13">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" ht="16.5" spans="3:12">
       <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" ht="15" spans="3:13">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" ht="16.5" spans="3:12">
       <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" ht="15" spans="3:13">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" ht="16.5" spans="3:12">
       <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-    </row>
-    <row r="42" ht="15" spans="3:13">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" ht="16.5" spans="3:12">
       <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-    </row>
-    <row r="43" ht="15" spans="3:13">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" ht="16.5" spans="3:12">
       <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-    </row>
-    <row r="44" ht="15" spans="3:13">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" ht="16.5" spans="3:12">
       <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" ht="15" spans="3:13">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" ht="16.5" spans="3:12">
       <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-    </row>
-    <row r="46" ht="15" spans="3:13">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" ht="16.5" spans="3:12">
       <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-    </row>
-    <row r="47" ht="15" spans="3:13">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" ht="16.5" spans="3:12">
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配置表/StoreItem.xlsx
+++ b/配置表/StoreItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="20827" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -1538,20 +1538,20 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="19.8181818181818" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.1818181818182" style="4" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="4" customWidth="1"/>
-    <col min="6" max="9" width="30.5363636363636" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.6090909090909" customWidth="1"/>
+    <col min="1" max="1" width="19.8141592920354" customWidth="1"/>
+    <col min="2" max="2" width="19.8141592920354" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.1858407079646" style="4" customWidth="1"/>
+    <col min="4" max="5" width="23.5044247787611" style="4" customWidth="1"/>
+    <col min="6" max="9" width="30.5398230088496" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6106194690265" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:10">
+    <row r="2" s="2" customFormat="1" ht="15" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:12">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="5" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="6" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B6" s="12">
         <v>2</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="7" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B7" s="12">
         <v>3</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="16.5" spans="2:10">
+    <row r="8" s="3" customFormat="1" ht="15" spans="2:10">
       <c r="B8" s="12">
         <v>4</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" ht="16.5" spans="2:12">
+    <row r="9" ht="15" spans="2:12">
       <c r="B9" s="12">
         <v>5</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="16.5" spans="2:12">
+    <row r="10" ht="15" spans="2:12">
       <c r="B10" s="12">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="16.5" spans="2:12">
+    <row r="11" ht="15" spans="2:12">
       <c r="B11" s="12">
         <v>7</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" ht="16.5" spans="2:12">
+    <row r="12" ht="15" spans="2:12">
       <c r="B12" s="12">
         <v>8</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" ht="16.5" spans="2:12">
+    <row r="13" ht="15" spans="2:12">
       <c r="B13" s="12">
         <v>9</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" ht="16.5" spans="2:12">
+    <row r="14" ht="15" spans="2:12">
       <c r="B14" s="12">
         <v>10</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" ht="16.5" spans="2:12">
+    <row r="15" ht="15" spans="2:12">
       <c r="B15" s="12">
         <v>11</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="2:12">
+    <row r="16" ht="15" spans="2:12">
       <c r="B16" s="12">
         <v>12</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="2:12">
+    <row r="17" ht="15" spans="2:12">
       <c r="B17" s="12">
         <v>13</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="2:12">
+    <row r="18" ht="15" spans="2:12">
       <c r="B18" s="12">
         <v>14</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="2:12">
+    <row r="19" ht="15" spans="2:12">
       <c r="B19" s="12">
         <v>15</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="2:12">
+    <row r="20" ht="15" spans="2:12">
       <c r="B20" s="12">
         <v>16</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="2:12">
+    <row r="21" ht="15" spans="2:12">
       <c r="B21" s="12">
         <v>17</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" ht="16.5" spans="2:12">
+    <row r="22" ht="15" spans="2:12">
       <c r="B22" s="12">
         <v>18</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="2:12">
+    <row r="23" ht="15" spans="2:12">
       <c r="B23" s="12">
         <v>19</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>76</v>
       </c>
       <c r="D23" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" s="14">
         <v>110</v>
@@ -2186,7 +2186,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="2:12">
+    <row r="24" ht="15" spans="2:12">
       <c r="B24" s="12">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="14">
         <v>220</v>
@@ -2214,7 +2214,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="2:12">
+    <row r="25" ht="15" spans="2:12">
       <c r="B25" s="12">
         <v>21</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="14">
         <v>450</v>
@@ -2242,7 +2242,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="3:12">
+    <row r="26" ht="15" spans="3:12">
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2253,7 +2253,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="3:12">
+    <row r="27" ht="15" spans="3:12">
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2264,7 +2264,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="3:12">
+    <row r="28" ht="15" spans="3:12">
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -2275,7 +2275,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="3:12">
+    <row r="29" ht="15" spans="3:12">
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -2286,7 +2286,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="3:12">
+    <row r="30" ht="15" spans="3:12">
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -2297,7 +2297,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="3:12">
+    <row r="31" ht="15" spans="3:12">
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -2308,7 +2308,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" ht="16.5" spans="3:12">
+    <row r="32" ht="15" spans="3:12">
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -2319,7 +2319,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" ht="16.5" spans="3:12">
+    <row r="33" ht="15" spans="3:12">
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -2330,7 +2330,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" ht="16.5" spans="3:12">
+    <row r="34" ht="15" spans="3:12">
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -2341,7 +2341,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" ht="16.5" spans="3:12">
+    <row r="35" ht="15" spans="3:12">
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -2352,7 +2352,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="3:12">
+    <row r="36" ht="15" spans="3:12">
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -2363,7 +2363,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="3:12">
+    <row r="37" ht="15" spans="3:12">
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
@@ -2374,7 +2374,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="3:12">
+    <row r="38" ht="15" spans="3:12">
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -2385,7 +2385,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="3:12">
+    <row r="39" ht="15" spans="3:12">
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -2396,7 +2396,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="3:12">
+    <row r="40" ht="15" spans="3:12">
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -2407,7 +2407,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="3:12">
+    <row r="41" ht="15" spans="3:12">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2418,7 +2418,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="3:12">
+    <row r="42" ht="15" spans="3:12">
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
@@ -2429,7 +2429,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="3:12">
+    <row r="43" ht="15" spans="3:12">
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -2440,7 +2440,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="3:12">
+    <row r="44" ht="15" spans="3:12">
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -2451,7 +2451,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="3:12">
+    <row r="45" ht="15" spans="3:12">
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
@@ -2462,7 +2462,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="3:12">
+    <row r="46" ht="15" spans="3:12">
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
@@ -2473,7 +2473,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="3:12">
+    <row r="47" ht="15" spans="3:12">
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="13"/>
